--- a/external_analysis/wacc_calculation.xlsx
+++ b/external_analysis/wacc_calculation.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyote\Documents\Cresicor\Project\capstone\python-analysis\external_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80360E26-E7D2-40AC-9B20-4A41877788D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06830A2-6B95-4BAE-A574-8E7A40E51EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{A1068B38-4061-44E0-92A4-ECF5FD871570}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,13 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
-  <si>
-    <t>Cash-flow</t>
-  </si>
-  <si>
-    <t>Qtr</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>WACC (annual)</t>
   </si>
@@ -92,6 +87,18 @@
   </si>
   <si>
     <t>1. Go by equity</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt; Can't use 4 quarter projection</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Quarter wise cash-flow</t>
+  </si>
+  <si>
+    <t>Computed growth rate per quarter</t>
   </si>
 </sst>
 </file>
@@ -99,9 +106,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +130,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -141,11 +161,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -160,12 +181,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{42D04998-53D5-4487-A9CA-A32535186ED0}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -664,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EF0556-2C25-42DD-AFDF-C02A662E55C1}">
-  <dimension ref="C3:R38"/>
+  <dimension ref="C3:Y38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:I15"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,14 +707,18 @@
     <col min="7" max="7" width="22.5703125" style="4" customWidth="1"/>
     <col min="8" max="8" width="36.140625" customWidth="1"/>
     <col min="9" max="9" width="27.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
     <col min="16" max="16" width="18.42578125" customWidth="1"/>
     <col min="17" max="17" width="21.140625" customWidth="1"/>
     <col min="18" max="18" width="23.28515625" customWidth="1"/>
+    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:18" x14ac:dyDescent="0.25">
       <c r="P3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>40</v>
@@ -691,7 +726,7 @@
     </row>
     <row r="4" spans="3:18" x14ac:dyDescent="0.25">
       <c r="P4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="5">
         <f>(Q3/4)/100</f>
@@ -699,29 +734,29 @@
       </c>
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="G7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>0</v>
+      <c r="G7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8" s="4">
         <v>5</v>
       </c>
-      <c r="H8" s="8">
-        <v>3835522</v>
+      <c r="H8" s="11">
+        <v>2079419</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" ref="I8:I15" si="0">H8/POWER((1+$Q$4),J8)</f>
-        <v>3486838.1818181816</v>
+        <v>1890380.9090909089</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -734,12 +769,12 @@
       <c r="G9" s="4">
         <v>6</v>
       </c>
-      <c r="H9" s="8">
-        <v>2000000</v>
+      <c r="H9" s="11">
+        <v>984036</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="0"/>
-        <v>1652892.5619834708</v>
+        <v>813252.89256198332</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -752,12 +787,12 @@
       <c r="G10" s="4">
         <v>7</v>
       </c>
-      <c r="H10" s="8">
-        <v>173634</v>
+      <c r="H10" s="11">
+        <v>1146690</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
-        <v>130453.79413974451</v>
+        <v>861525.16904582991</v>
       </c>
       <c r="J10">
         <v>3</v>
@@ -770,21 +805,21 @@
       <c r="G11" s="4">
         <v>8</v>
       </c>
-      <c r="H11" s="8">
-        <v>2682192</v>
+      <c r="H11" s="11">
+        <v>3034542</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="0"/>
-        <v>1831973.2258725492</v>
+        <v>2072633.0168704318</v>
       </c>
       <c r="J11">
         <v>4</v>
       </c>
       <c r="Q11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.25">
@@ -795,11 +830,12 @@
         <v>9</v>
       </c>
       <c r="H12" s="8">
-        <v>2787559</v>
+        <f>H11+H11*0.02</f>
+        <v>3095232.84</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
-        <v>1730854.822385455</v>
+        <v>1921896.0701889456</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -819,12 +855,12 @@
         <v>10</v>
       </c>
       <c r="H13" s="8">
-        <f>H12+(H12*0.1)</f>
-        <v>3066314.9</v>
+        <f t="shared" ref="H13:H15" si="1">H12+H12*0.02</f>
+        <v>3157137.4967999998</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
-        <v>1730854.8223854548</v>
+        <v>1782121.8105388402</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -844,12 +880,12 @@
         <v>11</v>
       </c>
       <c r="H14" s="8">
-        <f t="shared" ref="H14:H15" si="1">H13+(H13*0.1)</f>
-        <v>3372946.3899999997</v>
+        <f t="shared" si="1"/>
+        <v>3220280.2467359998</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="0"/>
-        <v>1730854.8223854543</v>
+        <v>1652512.9515905606</v>
       </c>
       <c r="J14">
         <v>7</v>
@@ -867,95 +903,112 @@
       </c>
       <c r="H15" s="8">
         <f t="shared" si="1"/>
-        <v>3710241.0289999996</v>
+        <v>3284685.8516707197</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="0"/>
-        <v>1730854.8223854546</v>
+        <v>1532330.1914748836</v>
       </c>
       <c r="J15">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="7:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:25" ht="30" x14ac:dyDescent="0.25">
       <c r="G20" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H20" s="9">
         <f>((H15-H8)/H8)/8</f>
-        <v>-4.0829178857532417E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="7:18" x14ac:dyDescent="0.25">
+        <v>7.2452139977003172E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="7:25" x14ac:dyDescent="0.25">
       <c r="G22" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H22">
         <f>((H15*(1+H20)/(Q4-H20)))</f>
-        <v>35501429.96181336</v>
-      </c>
-    </row>
-    <row r="25" spans="7:18" x14ac:dyDescent="0.25">
+        <v>127874483.45663656</v>
+      </c>
+    </row>
+    <row r="23" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="V23" s="11">
+        <v>2079419</v>
+      </c>
+      <c r="W23" s="11">
+        <v>984036</v>
+      </c>
+      <c r="X23" s="11">
+        <v>1146690</v>
+      </c>
+      <c r="Y23" s="11">
+        <v>3034542</v>
+      </c>
+    </row>
+    <row r="25" spans="7:25" x14ac:dyDescent="0.25">
       <c r="G25" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H25" s="1">
         <f>SUM(H8:H15,H22)</f>
-        <v>57129839.280813359</v>
+        <v>147876506.89184329</v>
       </c>
       <c r="Q25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="R25">
         <v>4000000</v>
       </c>
     </row>
-    <row r="26" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:25" x14ac:dyDescent="0.25">
       <c r="G26" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H26" s="3">
         <f>H25-R25</f>
-        <v>53129839.280813359</v>
-      </c>
-    </row>
-    <row r="32" spans="7:18" ht="30" x14ac:dyDescent="0.25">
+        <v>143876506.89184329</v>
+      </c>
+    </row>
+    <row r="32" spans="7:25" ht="30" x14ac:dyDescent="0.25">
       <c r="G32" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H32" s="5">
         <f>((H11-H8)/H8)/4</f>
-        <v>-7.5174252683207141E-2</v>
+        <v>0.11483051275380286</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G34" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H34" s="10">
         <f>((H11*(1+H32))/(Q4-H32))</f>
-        <v>14160529.774504466</v>
+        <v>-228110792.25601813</v>
       </c>
       <c r="M34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G37" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H37" s="10">
         <f>SUM(I8:I11,H34)</f>
-        <v>21262687.538318411</v>
+        <v>-222473000.26844898</v>
       </c>
     </row>
     <row r="38" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G38" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H38" s="10">
         <f>H37-R25</f>
-        <v>17262687.538318411</v>
+        <v>-226473000.26844898</v>
       </c>
     </row>
   </sheetData>
@@ -966,6 +1019,160 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5951B1BD-AA6D-4388-8678-9C6130422478}">
+  <dimension ref="I8:U22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="18.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I9" s="4">
+        <v>5</v>
+      </c>
+      <c r="J9" s="11">
+        <v>2079419</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="1">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="10" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I10" s="4">
+        <v>6</v>
+      </c>
+      <c r="J10" s="11">
+        <v>984036</v>
+      </c>
+    </row>
+    <row r="11" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I11" s="4">
+        <v>7</v>
+      </c>
+      <c r="J11" s="11">
+        <v>1146690</v>
+      </c>
+      <c r="L11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I12" s="4">
+        <v>8</v>
+      </c>
+      <c r="J12" s="11">
+        <v>3034542</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5">
+        <f>(M11/4)/100</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I13" s="4">
+        <v>9</v>
+      </c>
+      <c r="J13" s="8">
+        <f>J12+J12*0.02</f>
+        <v>3095232.84</v>
+      </c>
+    </row>
+    <row r="14" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I14" s="4">
+        <v>10</v>
+      </c>
+      <c r="J14" s="8">
+        <f t="shared" ref="J14:J16" si="0">J13+J13*0.02</f>
+        <v>3157137.4967999998</v>
+      </c>
+    </row>
+    <row r="15" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I15" s="4">
+        <v>11</v>
+      </c>
+      <c r="J15" s="8">
+        <f t="shared" si="0"/>
+        <v>3220280.2467359998</v>
+      </c>
+    </row>
+    <row r="16" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I16" s="4">
+        <v>12</v>
+      </c>
+      <c r="J16" s="8">
+        <f t="shared" si="0"/>
+        <v>3284685.8516707197</v>
+      </c>
+    </row>
+    <row r="18" spans="9:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="9">
+        <v>7.2452139977003172E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="I19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>127874483.45663656</v>
+      </c>
+    </row>
+    <row r="20" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="I20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>147876506.89184329</v>
+      </c>
+    </row>
+    <row r="22" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="S22">
+        <v>80000</v>
+      </c>
+      <c r="T22">
+        <v>100</v>
+      </c>
+      <c r="U22">
+        <f>S22*T22</f>
+        <v>8000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9430F5DD-BDF8-4B7F-B369-50CBC25D23CB}">
   <dimension ref="A1:M41"/>
   <sheetViews>
@@ -986,30 +1193,30 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
